--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>766272.6343515166</v>
+        <v>845774.2948799396</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5564538.631857701</v>
+        <v>5739665.974240759</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9623498.771259706</v>
+        <v>9552950.219331089</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>23.41994504831823</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>69.0154253865955</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.98074812542836</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>53.9673663288094</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>203.729675636991</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>66.40055121331447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>198.1515198310378</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.978052315291</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>50.729656786261</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>52.23490948285971</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>142.3844270995955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.76470074482877</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>52.23490948285925</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>57.9251845168115</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>79.76470074482877</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>238.6591887249604</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>145.1974462028481</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>217.0914199928491</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>288.2822493900557</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>25.87859906451666</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>142.6032471204642</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0423659626478</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>243.5875274224992</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>244.1831094673603</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>28.93420885558167</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>99.50249420969843</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>48.37445137896813</v>
       </c>
       <c r="I31" t="n">
-        <v>13.33835225137433</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>25.97544109408777</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>120.608807415961</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>19.58945082857547</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>57.92518451681239</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>295.3637168968367</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3436,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V37" t="n">
-        <v>68.85005436466994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>126.7498226612781</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3557,10 +3559,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>298.6212073486021</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>106.5867442799596</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>96.56995064598307</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>20.97008581141607</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>161.059121501438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>111.4702381038701</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>72.57171105915123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>129.0698687939115</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>33.7942609052533</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>848.1875530107163</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="C2" t="n">
-        <v>479.2250360703046</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D2" t="n">
-        <v>120.9593374635541</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>120.9593374635541</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>120.9593374635541</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>120.9593374635541</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.787393074838</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>119.9870984135519</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429752</v>
+        <v>304.7087196946019</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>599.4122767260735</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657496</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378427</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255069</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431138</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>102.7424917452035</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4525,13 +4527,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>474.7217947496364</v>
+        <v>1206.346846950667</v>
       </c>
       <c r="C5" t="n">
-        <v>105.7592778092247</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="D5" t="n">
-        <v>105.7592778092247</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E5" t="n">
-        <v>105.7592778092247</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F5" t="n">
-        <v>105.7592778092247</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>105.7592778092247</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2356.551777251681</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>2356.551777251681</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1983.086018990601</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.3216348137582</v>
+        <v>1592.946687014789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>496.0729413699642</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>790.776498401436</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748033</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624675</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800744</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>392.159661782164</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904426</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2689.770379977556</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2689.770379977556</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1637.877378051532</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.939223126803</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5321,7 +5323,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="15">
@@ -5367,16 +5369,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5479,7 +5481,7 @@
         <v>362.8175152271513</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836212</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1617.939223126803</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C17" t="n">
-        <v>1617.939223126803</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>125.0224038229021</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.939223126803</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
@@ -5589,49 +5591,49 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5701,22 +5703,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1577.683389100006</v>
       </c>
       <c r="V19" t="n">
-        <v>1927.294548088493</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392135</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>194.542240332463</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>66.5121164321834</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>530.9956795433841</v>
+        <v>1931.789305875498</v>
       </c>
       <c r="C22" t="n">
-        <v>384.3315924698002</v>
+        <v>1762.853122947591</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574644</v>
+        <v>1612.736483535255</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574644</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>3106.321558990132</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658019</v>
+        <v>3106.321558990132</v>
       </c>
       <c r="V22" t="n">
-        <v>1450.843444452132</v>
+        <v>2851.637070784245</v>
       </c>
       <c r="W22" t="n">
-        <v>1161.426274415171</v>
+        <v>2562.219900747285</v>
       </c>
       <c r="X22" t="n">
-        <v>933.436723517154</v>
+        <v>2334.230349849267</v>
       </c>
       <c r="Y22" t="n">
-        <v>712.6441443736238</v>
+        <v>2113.437770705737</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1616.654488422265</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C23" t="n">
-        <v>1247.691971481853</v>
+        <v>1512.746163729872</v>
       </c>
       <c r="D23" t="n">
-        <v>889.4262728751025</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E23" t="n">
-        <v>503.6380202768583</v>
+        <v>768.6922125248775</v>
       </c>
       <c r="F23" t="n">
-        <v>92.65211548725074</v>
+        <v>357.7063077352699</v>
       </c>
       <c r="G23" t="n">
-        <v>92.65211548725074</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>92.65211548725074</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993392</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W23" t="n">
-        <v>2766.859418723278</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>2393.393660462198</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y23" t="n">
-        <v>2003.254328486386</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>899.0183448486844</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C25" t="n">
-        <v>754.9746608886195</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D25" t="n">
-        <v>604.8580214762837</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6175,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V25" t="n">
-        <v>1416.425065783662</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W25" t="n">
-        <v>1127.007895746702</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X25" t="n">
-        <v>899.0183448486844</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y25" t="n">
-        <v>899.0183448486844</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1194.642199034831</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>808.8539464365867</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>397.8680416469792</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3079.557814111698</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2748.494926768127</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W26" t="n">
-        <v>2395.726271498012</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X26" t="n">
-        <v>2395.726271498012</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y26" t="n">
-        <v>2005.586939522201</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2320.988771034579</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034579</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622243</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.95903803985</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.06909054194</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916659</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.322864763052</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>2575.673259240466</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V28" t="n">
-        <v>2320.988771034579</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>2320.988771034579</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>2320.988771034579</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>2320.988771034579</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C29" t="n">
-        <v>552.8079389392149</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D29" t="n">
-        <v>523.5814653477182</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>167.0196863409697</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6491,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1007.761086342349</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C31" t="n">
-        <v>838.8249034144422</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D31" t="n">
-        <v>688.7082640021065</v>
+        <v>212.700875814816</v>
       </c>
       <c r="E31" t="n">
-        <v>540.7951704197134</v>
+        <v>212.700875814816</v>
       </c>
       <c r="F31" t="n">
-        <v>393.905222921803</v>
+        <v>212.700875814816</v>
       </c>
       <c r="G31" t="n">
-        <v>226.202386296522</v>
+        <v>212.700875814816</v>
       </c>
       <c r="H31" t="n">
-        <v>79.98519951437973</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1638.191681214136</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>1638.191681214136</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X31" t="n">
-        <v>1410.202130316119</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y31" t="n">
-        <v>1189.409551172589</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3299.368002322214</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3093.390254706436</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>3093.390254706436</v>
       </c>
       <c r="V32" t="n">
-        <v>3093.488074938325</v>
+        <v>3093.390254706436</v>
       </c>
       <c r="W32" t="n">
-        <v>2740.71941966821</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.25366140713</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.114329431319</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6883,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.842048484845</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>1513.842048484845</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>1513.842048484845</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1238.038871968309</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C35" t="n">
-        <v>869.0763550278978</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="D35" t="n">
-        <v>510.8106564211473</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="E35" t="n">
-        <v>125.022403822903</v>
+        <v>1115.425709158239</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>704.439804368631</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2388.243802269323</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2014.778044008243</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y35" t="n">
-        <v>1624.638712032431</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="36">
@@ -7005,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796265</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392149</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324644</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218343</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031477</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.464090846021</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>2170.872131622242</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1616.654488422266</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C41" t="n">
-        <v>1247.691971481854</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>889.4262728751039</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E41" t="n">
-        <v>503.6380202768597</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F41" t="n">
-        <v>503.6380202768597</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.859418723279</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2393.393660462199</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>2003.254328486388</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.4780323548192</v>
+        <v>406.7468436324423</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5418494269123</v>
+        <v>237.8106607045354</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>87.69402129219964</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7606,13 +7608,13 @@
         <v>1326.59460854119</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.908627226606</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X43" t="n">
-        <v>935.9190763285891</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.126497185059</v>
+        <v>588.395308462682</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1703.012869240228</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1344.747170633478</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218343</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7682,16 +7684,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,70 +7703,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1075.097337786232</v>
+        <v>1965.924922951511</v>
       </c>
       <c r="C46" t="n">
-        <v>906.1611548583251</v>
+        <v>1796.988740023604</v>
       </c>
       <c r="D46" t="n">
-        <v>756.0445154459893</v>
+        <v>1646.872100611268</v>
       </c>
       <c r="E46" t="n">
-        <v>608.1314218635962</v>
+        <v>1498.959007028875</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1498.959007028875</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>2912.153322005524</v>
       </c>
       <c r="U46" t="n">
-        <v>1705.527932658019</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="V46" t="n">
-        <v>1705.527932658019</v>
+        <v>2368.365966925281</v>
       </c>
       <c r="W46" t="n">
-        <v>1705.527932658019</v>
+        <v>2368.365966925281</v>
       </c>
       <c r="X46" t="n">
-        <v>1477.538381760002</v>
+        <v>2368.365966925281</v>
       </c>
       <c r="Y46" t="n">
-        <v>1256.745802616472</v>
+        <v>2147.573387781751</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.454437538929909</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>73.66059580999797</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>341.8529467226893</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,10 +22564,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>232.0031271758099</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22717,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>115.3258519193758</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>247.051186233596</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,13 +22840,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>124.0225828331439</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>80.85095794181437</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>88.37147850555317</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>204.7557893481896</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>298.511311931152</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23224,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>93.18613854007154</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>83.3252282894417</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270139</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>166.3497438692355</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>348.9508612248999</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23943,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>147.5787499310932</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>22.04937489577978</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24178,7 +24180,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.457529283320099</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>122.6394762633978</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>15.69833070840929</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>24.64357397816363</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>82.87935969080564</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24497,16 +24499,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>7.407644536402813</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>42.0287287382526</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7488327651013</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>307.373551532013</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>96.38056353535265</v>
       </c>
       <c r="I31" t="n">
-        <v>83.01406815846376</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.21232069408806</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>207.1434510541739</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.1202045604617</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>348.950861224899</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>115.5580087566167</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,10 +25368,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V37" t="n">
-        <v>183.2875889591581</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25397,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>255.1805474109837</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -25445,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>29.13105112153278</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>179.9362540566314</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>314.3517750074704</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.4638768351531</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>125.463876835153</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>270.4601319683917</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>16.35117922901972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>132.2315473537749</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>768896.6821529666</v>
+        <v>768896.6821529665</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>768896.6821529665</v>
+        <v>768896.6821529669</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845201.9959189533</v>
+        <v>768896.6821529667</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189532</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.9959189531</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189532</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.9959189531</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="C2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="D2" t="n">
         <v>321270.212019024</v>
       </c>
-      <c r="C2" t="n">
-        <v>321270.2120190238</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="F2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="E2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="F2" t="n">
-        <v>358046.9539194667</v>
       </c>
       <c r="G2" t="n">
         <v>358046.9539194666</v>
@@ -26332,28 +26334,28 @@
         <v>358046.9539194665</v>
       </c>
       <c r="I2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="J2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="K2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="N2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="L2" t="n">
-        <v>358046.9539194667</v>
-      </c>
-      <c r="M2" t="n">
-        <v>358046.9539194668</v>
-      </c>
-      <c r="N2" t="n">
-        <v>358046.9539194667</v>
-      </c>
       <c r="O2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819063</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.26579341477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19788.00270570973</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="C4" t="n">
-        <v>19788.00270570974</v>
+        <v>19788.00270570975</v>
       </c>
       <c r="D4" t="n">
-        <v>10380.34706710378</v>
+        <v>19788.00270570975</v>
       </c>
       <c r="E4" t="n">
         <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="G4" t="n">
         <v>10380.34706710378</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26485,31 +26487,31 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-906207.3467024504</v>
+        <v>-906207.34670245</v>
       </c>
       <c r="C6" t="n">
-        <v>208544.4368734694</v>
+        <v>208544.4368734691</v>
       </c>
       <c r="D6" t="n">
-        <v>47105.5258506317</v>
+        <v>208544.4368734698</v>
       </c>
       <c r="E6" t="n">
-        <v>273360.2662909696</v>
+        <v>91287.28647377869</v>
       </c>
       <c r="F6" t="n">
-        <v>273360.2662909698</v>
+        <v>273360.2662909697</v>
       </c>
       <c r="G6" t="n">
-        <v>273360.2662909696</v>
+        <v>273360.2662909693</v>
       </c>
       <c r="H6" t="n">
         <v>273360.2662909694</v>
@@ -26543,25 +26545,25 @@
         <v>273360.2662909696</v>
       </c>
       <c r="J6" t="n">
-        <v>105755.0884809869</v>
+        <v>105755.0884809871</v>
       </c>
       <c r="K6" t="n">
+        <v>273360.2662909695</v>
+      </c>
+      <c r="L6" t="n">
+        <v>273360.2662909696</v>
+      </c>
+      <c r="M6" t="n">
+        <v>225808.0004975547</v>
+      </c>
+      <c r="N6" t="n">
         <v>273360.2662909694</v>
-      </c>
-      <c r="L6" t="n">
-        <v>225066.296282779</v>
-      </c>
-      <c r="M6" t="n">
-        <v>273360.2662909697</v>
-      </c>
-      <c r="N6" t="n">
-        <v>273360.2662909696</v>
       </c>
       <c r="O6" t="n">
         <v>273360.2662909696</v>
       </c>
       <c r="P6" t="n">
-        <v>273360.2662909695</v>
+        <v>273360.2662909692</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
@@ -26805,28 +26807,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,11 +27017,11 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>190.8166233022538</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022534</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022538</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31312,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31391,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32087,7 +32089,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32792,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33029,13 +33031,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33503,13 +33505,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33679,7 +33681,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
         <v>99.83230779806951</v>
@@ -33916,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33971,10 +33973,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>69.4346584298473</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>260.2480920534829</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35735,7 +35737,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -36440,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36677,13 +36679,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37151,13 +37153,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37327,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
